--- a/BangKeHoach-DoAnCuoiKyCTDL.xlsx
+++ b/BangKeHoach-DoAnCuoiKyCTDL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>KẾ HOẠCH THỰC HIỆN ĐỒ ÁN CUỐI KỲ MÔN CẤU TRÚC DỮ LIỆU &amp; GIẢI THUẬT - 2019</t>
   </si>
@@ -49,10 +49,7 @@
     <t>X</t>
   </si>
   <si>
-    <t>20/9/2019</t>
-  </si>
-  <si>
-    <t>25/9/2019</t>
+    <t>20/10/2019</t>
   </si>
   <si>
     <t>khảo sát mô hình từ điển Anh-Việt bằng bảng băm</t>
@@ -61,10 +58,7 @@
     <t>tìm hiểu cách kết hợp bảng băm và cách thiết kế từ điển A-V</t>
   </si>
   <si>
-    <t>26/91019</t>
-  </si>
-  <si>
-    <t>30/9/2019</t>
+    <t>25/10/2019</t>
   </si>
   <si>
     <t>triển khai xây dựng</t>
@@ -76,16 +70,16 @@
     <t>tinh chỉnh chương trình</t>
   </si>
   <si>
-    <t>15/10/2019</t>
+    <t>21/10/2019</t>
   </si>
   <si>
     <t>xây dựng giao diện và trình bày đồ án</t>
   </si>
   <si>
-    <t>16/10/2019</t>
+    <t>21/11/2019</t>
   </si>
   <si>
-    <t>29/10/2019</t>
+    <t>25/11/2019</t>
   </si>
 </sst>
 </file>
@@ -93,11 +87,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[$-1010000]d/m/yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -142,16 +136,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,36 +167,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,7 +182,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,17 +196,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,29 +206,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,6 +227,58 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -295,7 +289,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,19 +319,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,7 +331,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,7 +349,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,7 +367,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,115 +469,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,16 +484,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,49 +513,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -578,21 +559,34 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -607,130 +601,130 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -738,7 +732,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -747,7 +741,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -758,7 +752,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -773,7 +767,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1135,7 +1129,7 @@
   <dimension ref="A1:W1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -1226,11 +1220,11 @@
       <c r="D3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>11</v>
+      <c r="E3" s="9">
+        <v>43748</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -1252,10 +1246,10 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="35" customHeight="1" spans="1:23">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>10</v>
@@ -1264,10 +1258,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -1361,20 +1355,20 @@
     </row>
     <row r="8" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:23">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="11"/>
-      <c r="E8" s="9">
-        <v>43475</v>
+      <c r="E8" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="F8" s="9">
-        <v>43748</v>
+        <v>43476</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -1396,17 +1390,17 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="19.5" customHeight="1" spans="2:23">
       <c r="B9" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="9">
-        <v>43779</v>
+        <v>43810</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -1428,7 +1422,7 @@
     </row>
     <row r="10" s="1" customFormat="1" ht="19.5" customHeight="1" spans="2:23">
       <c r="B10" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>10</v>
@@ -1437,10 +1431,10 @@
         <v>10</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
